--- a/src/test/resources/Excelsourcefile/Userstory1.xlsx
+++ b/src/test/resources/Excelsourcefile/Userstory1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="89">
   <si>
     <t>Field</t>
   </si>
@@ -255,13 +255,68 @@
     <t>Full Registration &amp; Deletion</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Verify visibility of New User Signup</t>
   </si>
   <si>
-    <t>{ name: 'Taiba Rehman', email: 'taibarehman377@gmail.com' }</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>{ name: 'Taiba Rehman', email: 'rehmantaiba1234@gmail.com' }</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"titleof_Information": "Enter Account Information",
+    "title": "Mr.",
+    "name": "John Doe",
+    "email": "john.doe@example.com",
+    "password": "hashed_password_123",
+      "day": "15",
+      "month": "July",
+      "year": "1990"
+    }</t>
+  </si>
+  <si>
+    <t>{
+    "newsletter": true,
+    "partner_offers": true
+  }</t>
+  </si>
+  <si>
+    <t>{  "title":"Address Information",
+    "first_name": "John",
+    "last_name": "Doe",
+    "company": "Tech Solutions Inc.",
+    "address_line_1": "123 Innovation Drive",
+    "address_line_2": "Suite 405",
+    "country": "United States",
+    "state": "California",
+    "city": "San Francisco",
+    "zipcode": "94105",
+    "mobile_number": "+1-555-012-3456"
+  }</t>
+  </si>
+  <si>
+    <t>Login User with correct email and password</t>
+  </si>
+  <si>
+    <t>Verify 'Login to your account' is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter correct email address and password</t>
+  </si>
+  <si>
+    <t>{ email : 'saima@123', password :'saima@123'}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click 'login' button</t>
+  </si>
+  <si>
+    <t>Verify that 'Logged in as username' is visible</t>
+  </si>
+  <si>
+    <t>{username:'saima'}</t>
+  </si>
+  <si>
+    <t>Verify that 'ACCOUNT DELETED!' is visible</t>
   </si>
 </sst>
 </file>
@@ -274,18 +329,30 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans Text&quot;"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -297,6 +364,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -648,12 +721,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -757,31 +845,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,127 +866,151 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1400,285 +1500,285 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1693,168 +1793,271 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="23.8796296296296"/>
-    <col min="3" max="3" customWidth="true" width="62.25"/>
-    <col min="4" max="4" customWidth="true" width="26.3333333333333"/>
+    <col min="2" max="2" customWidth="true" width="33.8888888888889"/>
+    <col min="3" max="3" customWidth="true" style="1" width="62.25"/>
+    <col min="4" max="4" customWidth="true" width="255.777777777778"/>
     <col min="5" max="5" customWidth="true" width="50.25"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="3:6">
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="3:6">
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="3:6">
+      <c r="C5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="3:6">
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="3:5">
-      <c r="C3" s="1" t="s">
+      <c r="E6" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="3:6">
+      <c r="C7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="3:6">
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="3:6">
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="3:6">
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="3:6">
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="3:6">
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="3:6">
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="3:3">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="3:5">
-      <c r="C4" s="1" t="s">
+      <c r="F15" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="3:3">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="3:5">
-      <c r="C5" s="1" t="s">
+      <c r="F16" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="3:5">
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="3:5">
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="3:5">
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="3:5">
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="3:5">
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="3:5">
-      <c r="C11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="3:5">
-      <c r="C12" s="1" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="3:3">
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="3:4">
+      <c r="C18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="3:3">
+      <c r="C19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="3:4">
+      <c r="C20" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="3:3">
+      <c r="C21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="3:5">
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>67</v>
+      <c r="F21" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="3:3">
+      <c r="C22" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
